--- a/data/trans_orig/P16B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F0C58C7-E39D-4143-92FF-F5C8AF93CDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3E3919-AEDE-4DCB-B781-4DAD6709D547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E43C855E-1FF4-41E6-9D0A-A900BF9A9642}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BCE6F1B-7337-408B-A865-BF72CF0B26F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="159">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>86,99%</t>
   </si>
   <si>
-    <t>37,23%</t>
+    <t>44,97%</t>
   </si>
   <si>
     <t>91,11%</t>
   </si>
   <si>
-    <t>61,82%</t>
+    <t>62,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>62,77%</t>
+    <t>55,03%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>38,18%</t>
+    <t>37,54%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -133,7 +133,7 @@
     <t>98,25%</t>
   </si>
   <si>
-    <t>90,29%</t>
+    <t>89,95%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -148,7 +148,7 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>9,71%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -157,37 +157,37 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,59%</t>
+    <t>88,45%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>84,66%</t>
+    <t>84,54%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>92,01%</t>
+    <t>92,13%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>9,41%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>15,34%</t>
+    <t>15,46%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>7,99%</t>
+    <t>7,87%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -196,7 +196,7 @@
     <t>95,46%</t>
   </si>
   <si>
-    <t>83,35%</t>
+    <t>84,22%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -205,13 +205,13 @@
     <t>97,52%</t>
   </si>
   <si>
-    <t>90,97%</t>
+    <t>92,17%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>16,65%</t>
+    <t>15,78%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -220,7 +220,7 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>9,03%</t>
+    <t>7,83%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -232,10 +232,10 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -244,64 +244,64 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -424,43 +424,49 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>92,23%</t>
+    <t>90,46%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
+    <t>95,89%</t>
+  </si>
+  <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>7,77%</t>
+    <t>9,54%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>86,5%</t>
+    <t>86,59%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>93,74%</t>
+    <t>93,34%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>13,5%</t>
+    <t>13,41%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,26%</t>
+    <t>6,66%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -487,13 +493,13 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>96,56%</t>
+    <t>96,08%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,38%</t>
+    <t>98,35%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -502,13 +508,13 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>3,92%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,65%</t>
   </si>
 </sst>
 </file>
@@ -920,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D548E8-9B53-427C-9354-5217E88654F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C21BA-E471-47C5-B738-B74995F12CC3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1536,7 +1542,7 @@
         <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>65815</v>
+        <v>65814</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -1638,7 +1644,7 @@
         <v>67</v>
       </c>
       <c r="N15" s="7">
-        <v>67488</v>
+        <v>67487</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1983,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F72B327-DC8B-4BCF-BE23-EE8FBEAAB6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157AC521-D315-4851-810F-480AE1D27E97}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3046,7 +3052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F663A2-7D52-4238-A666-D6C5C5359933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBB2C28-AD5A-45CA-A7C0-2856C14B2273}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3513,7 +3519,7 @@
         <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3546,13 +3552,13 @@
         <v>954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3561,13 +3567,13 @@
         <v>954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,10 +3656,10 @@
         <v>40138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3665,10 +3671,10 @@
         <v>87181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3701,13 +3707,13 @@
         <v>1083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3716,13 +3722,13 @@
         <v>1083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3799,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3808,7 +3814,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3823,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3847,7 +3853,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3862,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3877,7 +3883,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3960,10 +3966,10 @@
         <v>183062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3975,10 +3981,10 @@
         <v>383469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4002,7 +4008,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4011,13 +4017,13 @@
         <v>2037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4026,13 +4032,13 @@
         <v>2037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3E3919-AEDE-4DCB-B781-4DAD6709D547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9504E1AC-B40B-42FC-96BE-649258BA0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BCE6F1B-7337-408B-A865-BF72CF0B26F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA2C50AD-4F10-417B-B164-9C338E4E2474}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,13 +85,13 @@
     <t>86,99%</t>
   </si>
   <si>
-    <t>44,97%</t>
+    <t>45,05%</t>
   </si>
   <si>
     <t>91,11%</t>
   </si>
   <si>
-    <t>62,46%</t>
+    <t>62,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,16 +109,16 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>55,03%</t>
+    <t>54,95%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -127,13 +127,13 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>79,97%</t>
+    <t>79,26%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>89,95%</t>
+    <t>91,42%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -142,61 +142,61 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>20,03%</t>
+    <t>20,74%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>88,45%</t>
+    <t>90,29%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>84,54%</t>
+    <t>87,05%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>92,13%</t>
+    <t>92,2%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>11,55%</t>
+    <t>9,71%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>15,46%</t>
+    <t>12,95%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>84,22%</t>
+    <t>85,07%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -205,13 +205,13 @@
     <t>97,52%</t>
   </si>
   <si>
-    <t>92,17%</t>
+    <t>91,95%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>15,78%</t>
+    <t>14,93%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -220,7 +220,7 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>7,83%</t>
+    <t>8,05%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -232,10 +232,10 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -244,64 +244,64 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -394,7 +394,7 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>Porcentajes de medicinas para el corazón recetados en 2015 (Tasa respuesta: 5,43%)</t>
+    <t>Porcentajes de medicinas para el corazón recetados en 2016 (Tasa respuesta: 5,43%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -424,49 +424,49 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>90,46%</t>
+    <t>90,74%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>95,89%</t>
+    <t>96,24%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>9,54%</t>
+    <t>9,26%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>86,59%</t>
+    <t>85,83%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>93,34%</t>
+    <t>92,97%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>13,41%</t>
+    <t>14,17%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>7,03%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -493,13 +493,10 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,35%</t>
+    <t>98,07%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -508,13 +505,10 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -926,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C21BA-E471-47C5-B738-B74995F12CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D0A85-9AC5-4B7C-8689-DF10C75359AB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1542,7 +1536,7 @@
         <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>65814</v>
+        <v>65815</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -1644,7 +1638,7 @@
         <v>67</v>
       </c>
       <c r="N15" s="7">
-        <v>67487</v>
+        <v>67488</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1989,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157AC521-D315-4851-810F-480AE1D27E97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679186CF-57E7-47DC-AD76-80BC1EAF9FA8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3052,7 +3046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBB2C28-AD5A-45CA-A7C0-2856C14B2273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D8B53F-B868-4B46-A6F4-F3B190BC281F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3969,7 +3963,7 @@
         <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3981,10 +3975,10 @@
         <v>383469</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4008,7 +4002,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4017,13 +4011,13 @@
         <v>2037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4032,13 +4026,13 @@
         <v>2037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9504E1AC-B40B-42FC-96BE-649258BA0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA27F0B2-44DB-4D0C-B977-556B9690E6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA2C50AD-4F10-417B-B164-9C338E4E2474}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF48ABC1-9185-43D6-AA4D-DC224FF71B12}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>86,99%</t>
   </si>
   <si>
-    <t>45,05%</t>
+    <t>37,23%</t>
   </si>
   <si>
     <t>91,11%</t>
   </si>
   <si>
-    <t>62,23%</t>
+    <t>61,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>54,95%</t>
+    <t>62,77%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>37,77%</t>
+    <t>38,18%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -127,13 +127,13 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>79,26%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>91,42%</t>
+    <t>90,29%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -142,13 +142,13 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>20,74%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>8,58%</t>
+    <t>9,71%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -157,37 +157,37 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,29%</t>
+    <t>90,59%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>87,05%</t>
+    <t>84,66%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>92,2%</t>
+    <t>92,01%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>9,71%</t>
+    <t>9,41%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>15,34%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>7,99%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -196,7 +196,7 @@
     <t>95,46%</t>
   </si>
   <si>
-    <t>85,07%</t>
+    <t>83,35%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -205,13 +205,13 @@
     <t>97,52%</t>
   </si>
   <si>
-    <t>91,95%</t>
+    <t>90,97%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>14,93%</t>
+    <t>16,65%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -220,7 +220,7 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>8,05%</t>
+    <t>9,03%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -232,10 +232,10 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -244,64 +244,64 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -424,49 +424,43 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>90,74%</t>
+    <t>92,23%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>9,26%</t>
+    <t>7,77%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>85,83%</t>
+    <t>86,5%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>92,97%</t>
+    <t>93,74%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>14,17%</t>
+    <t>13,5%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>6,26%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -493,10 +487,13 @@
     <t>98,9%</t>
   </si>
   <si>
+    <t>96,56%</t>
+  </si>
+  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>98,38%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -505,10 +502,13 @@
     <t>1,1%</t>
   </si>
   <si>
+    <t>3,44%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,62%</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D0A85-9AC5-4B7C-8689-DF10C75359AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80C5CC1-22FF-4D76-AF85-942AA642A601}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1983,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679186CF-57E7-47DC-AD76-80BC1EAF9FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289BB01D-F960-4068-9DBD-35E423B85E63}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3046,7 +3046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D8B53F-B868-4B46-A6F4-F3B190BC281F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4848A914-35C9-4DA1-9666-52D3EDE5E922}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3513,7 +3513,7 @@
         <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3546,13 +3546,13 @@
         <v>954</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3561,13 +3561,13 @@
         <v>954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,10 +3650,10 @@
         <v>40138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3665,10 +3665,10 @@
         <v>87181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3701,13 +3701,13 @@
         <v>1083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3716,13 +3716,13 @@
         <v>1083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3808,7 +3808,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3823,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3847,7 +3847,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3948,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3960,10 +3960,10 @@
         <v>183062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3975,10 +3975,10 @@
         <v>383469</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4002,7 +4002,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4011,13 +4011,13 @@
         <v>2037</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>

--- a/data/trans_orig/P16B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA27F0B2-44DB-4D0C-B977-556B9690E6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD0C6F5-D3B1-4211-8204-5B58AFF0A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF48ABC1-9185-43D6-AA4D-DC224FF71B12}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{73C07276-D770-4DF7-B97F-981AC3D1AD95}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="146">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,22 +76,22 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>55,59%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,261 +103,234 @@
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicinas para el corazón recetados en 2012 (Tasa respuesta: 4,98%)</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicinas para el corazón recetados en 2012 (Tasa respuesta: 4,98%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
     <t>96,81%</t>
   </si>
   <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
     <t>96,64%</t>
   </si>
   <si>
@@ -397,28 +370,22 @@
     <t>Porcentajes de medicinas para el corazón recetados en 2016 (Tasa respuesta: 5,43%)</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>95,75%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,31%</t>
   </si>
   <si>
     <t>98,2%</t>
@@ -920,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80C5CC1-22FF-4D76-AF85-942AA642A601}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0181778A-AB2A-4B43-B30E-A7C03224CFE8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1038,10 +1005,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>3084</v>
+        <v>37714</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1053,10 +1020,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>5795</v>
+        <v>30896</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1068,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>8879</v>
+        <v>68610</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1104,10 +1071,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>867</v>
+        <v>1932</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1119,10 +1086,10 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>867</v>
+        <v>1932</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1140,10 +1107,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7">
-        <v>3084</v>
+        <v>37714</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1155,10 +1122,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6662</v>
+        <v>32828</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1170,10 +1137,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>9746</v>
+        <v>70542</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1193,46 +1160,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>34630</v>
+        <v>56841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>25100</v>
+        <v>48721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="N7" s="7">
-        <v>59730</v>
+        <v>105562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1244,49 +1211,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1066</v>
+        <v>1320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1066</v>
+        <v>2387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7">
-        <v>34630</v>
+        <v>57908</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1310,10 +1277,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I9" s="7">
-        <v>26166</v>
+        <v>50041</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1325,10 +1292,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>60796</v>
+        <v>107949</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1342,52 +1309,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>56841</v>
+        <v>35156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>48721</v>
+        <v>30659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>105562</v>
+        <v>65815</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1399,31 +1366,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1067</v>
+        <v>1673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>47</v>
@@ -1432,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2387</v>
+        <v>1673</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>48</v>
@@ -1450,10 +1417,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>57908</v>
+        <v>36829</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1465,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I12" s="7">
-        <v>50041</v>
+        <v>30659</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1480,10 +1447,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="N12" s="7">
-        <v>107949</v>
+        <v>67488</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1503,46 +1470,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>35156</v>
+        <v>43106</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>49</v>
+      </c>
+      <c r="I13" s="7">
+        <v>50673</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30659</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N13" s="7">
-        <v>65815</v>
+        <v>93779</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1554,49 +1521,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>1673</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>2119</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1673</v>
+        <v>2119</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>36829</v>
+        <v>43106</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1620,10 +1587,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I15" s="7">
-        <v>30659</v>
+        <v>52792</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1635,10 +1602,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="N15" s="7">
-        <v>67488</v>
+        <v>95898</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1652,55 +1619,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="D16" s="7">
-        <v>43106</v>
+        <v>172817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>155</v>
+      </c>
+      <c r="I16" s="7">
+        <v>160949</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7">
-        <v>50673</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="N16" s="7">
-        <v>93779</v>
+        <v>333765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,49 +1676,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>2119</v>
+        <v>5371</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>2119</v>
+        <v>8111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,10 +1727,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="D18" s="7">
-        <v>43106</v>
+        <v>175557</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1775,10 +1742,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="I18" s="7">
-        <v>52792</v>
+        <v>166320</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1790,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="N18" s="7">
-        <v>95898</v>
+        <v>341876</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1806,171 +1773,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>179</v>
-      </c>
-      <c r="D19" s="7">
-        <v>172817</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="7">
-        <v>155</v>
-      </c>
-      <c r="I19" s="7">
-        <v>160949</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="7">
-        <v>334</v>
-      </c>
-      <c r="N19" s="7">
-        <v>333765</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2740</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8111</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>182</v>
-      </c>
-      <c r="D21" s="7">
-        <v>175557</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>160</v>
-      </c>
-      <c r="I21" s="7">
-        <v>166320</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>342</v>
-      </c>
-      <c r="N21" s="7">
-        <v>341876</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1983,8 +1794,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289BB01D-F960-4068-9DBD-35E423B85E63}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545E0C34-0824-4297-BAFE-F066DC9C3583}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2000,7 +1811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2101,46 +1912,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>4521</v>
+        <v>33597</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>4686</v>
+        <v>39577</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>9206</v>
+        <v>73174</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2164,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2179,7 +1990,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2194,7 +2005,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,10 +2014,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>4521</v>
+        <v>33597</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2218,10 +2029,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>4686</v>
+        <v>39577</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2233,10 +2044,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>9206</v>
+        <v>73174</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2256,46 +2067,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>29076</v>
+        <v>49553</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>34891</v>
+        <v>50123</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>63967</v>
+        <v>99676</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2319,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2334,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2349,7 +2160,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,10 +2169,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>29076</v>
+        <v>49553</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2373,10 +2184,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I9" s="7">
-        <v>34891</v>
+        <v>50123</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2388,10 +2199,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>63967</v>
+        <v>99676</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2405,52 +2216,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>49553</v>
+        <v>36225</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>50123</v>
+        <v>28160</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>99676</v>
+        <v>64385</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2474,7 +2285,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2489,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2504,7 +2315,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,10 +2324,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>49553</v>
+        <v>36225</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2528,10 +2339,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>50123</v>
+        <v>28160</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2543,10 +2354,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="N12" s="7">
-        <v>99676</v>
+        <v>64385</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2566,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>36225</v>
+        <v>59247</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -2581,31 +2392,31 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>28160</v>
+        <v>52601</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="N13" s="7">
-        <v>64385</v>
+        <v>111848</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2644,7 +2455,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2659,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,10 +2479,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>36225</v>
+        <v>59247</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2683,10 +2494,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I15" s="7">
-        <v>28160</v>
+        <v>52601</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2698,10 +2509,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="N15" s="7">
-        <v>64385</v>
+        <v>111848</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2715,52 +2526,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="D16" s="7">
-        <v>59247</v>
+        <v>178622</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="I16" s="7">
-        <v>52601</v>
+        <v>170460</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="N16" s="7">
-        <v>111848</v>
+        <v>349083</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2784,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2799,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2814,7 +2625,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,10 +2634,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="D18" s="7">
-        <v>59247</v>
+        <v>178622</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2838,10 +2649,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="I18" s="7">
-        <v>52601</v>
+        <v>170460</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2853,10 +2664,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="N18" s="7">
-        <v>111848</v>
+        <v>349083</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2869,171 +2680,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>165</v>
-      </c>
-      <c r="D19" s="7">
-        <v>178622</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>159</v>
-      </c>
-      <c r="I19" s="7">
-        <v>170460</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>324</v>
-      </c>
-      <c r="N19" s="7">
-        <v>349083</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>165</v>
-      </c>
-      <c r="D21" s="7">
-        <v>178622</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>159</v>
-      </c>
-      <c r="I21" s="7">
-        <v>170460</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>324</v>
-      </c>
-      <c r="N21" s="7">
-        <v>349083</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3046,8 +2701,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4848A914-35C9-4DA1-9666-52D3EDE5E922}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E351A6B-6937-4046-9003-0F82E3C37F68}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3063,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3164,46 +2819,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>5382</v>
+        <v>43686</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>6316</v>
+        <v>42982</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="N4" s="7">
-        <v>11698</v>
+        <v>86668</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3227,7 +2882,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3242,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3257,7 +2912,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>5382</v>
+        <v>43686</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3281,10 +2936,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7">
-        <v>6316</v>
+        <v>42982</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3296,10 +2951,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>11698</v>
+        <v>86668</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3319,49 +2974,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>38304</v>
+        <v>55727</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>36666</v>
+        <v>52173</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="N7" s="7">
-        <v>74970</v>
+        <v>107900</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,37 +3037,37 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,10 +3076,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7">
-        <v>38304</v>
+        <v>55727</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3436,10 +3091,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>36666</v>
+        <v>53127</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3451,10 +3106,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="N9" s="7">
-        <v>74970</v>
+        <v>108854</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3468,52 +3123,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>55727</v>
+        <v>47043</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>52173</v>
+        <v>40138</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>107900</v>
+        <v>87181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3537,37 +3192,37 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>954</v>
+        <v>1083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>954</v>
+        <v>1083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,10 +3231,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>55727</v>
+        <v>47043</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3591,10 +3246,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I12" s="7">
-        <v>53127</v>
+        <v>41221</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3606,10 +3261,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="N12" s="7">
-        <v>108854</v>
+        <v>88264</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3629,49 +3284,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>47043</v>
+        <v>53952</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>40138</v>
+        <v>47768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>87181</v>
+        <v>101720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,37 +3347,37 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>47043</v>
+        <v>53952</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3746,10 +3401,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I15" s="7">
-        <v>41221</v>
+        <v>47768</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3761,10 +3416,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>88264</v>
+        <v>101720</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3778,55 +3433,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="D16" s="7">
-        <v>53952</v>
+        <v>200408</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I16" s="7">
-        <v>47768</v>
+        <v>183062</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>93</v>
+        <v>355</v>
       </c>
       <c r="N16" s="7">
-        <v>101720</v>
+        <v>383469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,37 +3502,37 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2037</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2037</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,10 +3541,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="D18" s="7">
-        <v>53952</v>
+        <v>200408</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3901,10 +3556,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="I18" s="7">
-        <v>47768</v>
+        <v>185099</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3916,10 +3571,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>357</v>
       </c>
       <c r="N18" s="7">
-        <v>101720</v>
+        <v>385506</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3932,171 +3587,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>200</v>
-      </c>
-      <c r="D19" s="7">
-        <v>200408</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>155</v>
-      </c>
-      <c r="I19" s="7">
-        <v>183062</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>355</v>
-      </c>
-      <c r="N19" s="7">
-        <v>383469</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2037</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2037</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>200</v>
-      </c>
-      <c r="D21" s="7">
-        <v>200408</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>157</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185099</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>357</v>
-      </c>
-      <c r="N21" s="7">
-        <v>385506</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
